--- a/アプリケーション方式設計書_0表紙.xlsx
+++ b/アプリケーション方式設計書_0表紙.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3E0824-4502-45A2-89AA-229C25D95CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F81F0-0A11-45EA-A382-CDBAEB065994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>PJ名</t>
   </si>
@@ -545,6 +545,78 @@
   </si>
   <si>
     <t>20XX/XX/XX</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.2. 常駐バッチ処理方式</t>
+  </si>
+  <si>
+    <t>4.2.1. 処理方式概要</t>
+  </si>
+  <si>
+    <t>4.2.2. アプリケーション構成</t>
+  </si>
+  <si>
+    <t>4.2.3. 処理制御</t>
+  </si>
+  <si>
+    <t>4.2.4. 責務配置</t>
+  </si>
+  <si>
+    <t>3.2. 非同期処理方式</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.2.1. 処理方式概要</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.2.2. 入力値精査</t>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.2.3. 要求の処理状況</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.2.5. 要求データ</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.2.6. エラーハンドリング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.2.7. トランザクションの単位</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.2.8. 多重起動制御</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.2.9. メール送信</t>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3758,7 +3830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3904,6 +3976,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7320,45 +7396,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="2"/>
-      <c r="Q1" s="125" t="s">
+      <c r="Q1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129"/>
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="133"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
@@ -7372,43 +7448,43 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
       <c r="O2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="8"/>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="138"/>
       <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="144"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
@@ -7422,37 +7498,37 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
       <c r="O3" s="14"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="141"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="150"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
@@ -7486,1070 +7562,1070 @@
       <c r="AI6" s="35"/>
     </row>
     <row r="7" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="116" t="s">
+      <c r="H7" s="116"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="110" t="s">
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="110" t="s">
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="111"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="113"/>
     </row>
     <row r="8" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="119" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="119" t="s">
+      <c r="K8" s="122"/>
+      <c r="L8" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="115"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="113"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="115"/>
     </row>
     <row r="9" spans="1:40" s="38" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96" t="s">
+      <c r="C9" s="97"/>
+      <c r="D9" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="105" t="s">
+      <c r="H9" s="102"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="91" t="s">
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="95"/>
     </row>
     <row r="10" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="65"/>
     </row>
     <row r="11" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="65"/>
     </row>
     <row r="12" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="82"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="84"/>
     </row>
     <row r="13" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="65"/>
     </row>
     <row r="14" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="65"/>
     </row>
     <row r="15" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="65"/>
     </row>
     <row r="16" spans="1:40" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="63"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="65"/>
     </row>
     <row r="17" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="63"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="65"/>
     </row>
     <row r="18" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="65"/>
     </row>
     <row r="19" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="63"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="65"/>
     </row>
     <row r="20" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="63"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="65"/>
     </row>
     <row r="21" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="63"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="65"/>
     </row>
     <row r="22" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="65"/>
     </row>
     <row r="23" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="63"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="65"/>
     </row>
     <row r="24" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="63"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="65"/>
     </row>
     <row r="25" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="63"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="65"/>
     </row>
     <row r="26" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="63"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="65"/>
     </row>
     <row r="27" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="65"/>
     </row>
     <row r="28" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="65"/>
     </row>
     <row r="29" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="63"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="65"/>
     </row>
     <row r="30" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="63"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="65"/>
     </row>
     <row r="31" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="65"/>
     </row>
     <row r="32" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="61"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="63"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="65"/>
     </row>
     <row r="33" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="63"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="65"/>
     </row>
     <row r="34" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="40"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="63"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="202">
@@ -8765,7 +8841,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL82"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8785,53 +8861,53 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="122" t="str">
+      <c r="E1" s="124" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="2"/>
-      <c r="Q1" s="125" t="str">
+      <c r="Q1" s="127" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129"/>
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="128" t="str">
+      <c r="AA1" s="130" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="140" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="142" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="142"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="144"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="5"/>
@@ -8843,53 +8919,53 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="122" t="str">
+      <c r="E2" s="124" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
       <c r="O2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="8"/>
-      <c r="Q2" s="149" t="str">
+      <c r="Q2" s="151" t="str">
         <f>IF(変更履歴!Q2&lt;&gt;"",変更履歴!Q2,"")</f>
         <v>アプリケーション方式設計書</v>
       </c>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="153"/>
       <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="128" t="str">
+      <c r="AA2" s="130" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="140" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="142" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="144"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
@@ -8901,40 +8977,40 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="122" t="str">
+      <c r="E3" s="124" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
       <c r="O3" s="14"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="156"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="150"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
@@ -9186,7 +9262,9 @@
       <c r="P21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="T21" s="60" t="s">
+        <v>133</v>
+      </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
@@ -9207,13 +9285,9 @@
       <c r="O22" s="21"/>
       <c r="P22" s="17"/>
       <c r="R22" s="17"/>
-      <c r="S22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="U22" s="61" t="s">
+        <v>134</v>
+      </c>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
@@ -9224,8 +9298,8 @@
       </c>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
-      <c r="T23" s="60" t="s">
-        <v>126</v>
+      <c r="U23" s="61" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
@@ -9237,8 +9311,8 @@
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="U24" s="17" t="s">
-        <v>56</v>
+      <c r="U24" s="61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
@@ -9250,9 +9324,6 @@
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="U25" s="17" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
@@ -9263,8 +9334,8 @@
       <c r="F26" s="18"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="U26" s="17" t="s">
-        <v>58</v>
+      <c r="S26" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
@@ -9276,8 +9347,8 @@
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
-      <c r="U27" s="17" t="s">
-        <v>59</v>
+      <c r="T27" s="60" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
@@ -9288,7 +9359,7 @@
       </c>
       <c r="O28" s="21"/>
       <c r="U28" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
@@ -9300,7 +9371,7 @@
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="U29" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
@@ -9312,7 +9383,7 @@
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="U30" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
@@ -9324,7 +9395,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="U31" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
@@ -9336,7 +9407,7 @@
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="U32" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
@@ -9347,7 +9418,7 @@
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="U33" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
@@ -9358,7 +9429,7 @@
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="U34" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
@@ -9369,7 +9440,7 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="U35" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
@@ -9378,7 +9449,7 @@
         <v>52</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
@@ -9387,7 +9458,7 @@
         <v>53</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
@@ -9396,7 +9467,7 @@
         <v>54</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
@@ -9404,16 +9475,16 @@
       <c r="E39" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="U39" s="18" t="s">
-        <v>73</v>
+      <c r="U39" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E40" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="U40" s="18" t="s">
-        <v>74</v>
+      <c r="U40" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
@@ -9423,16 +9494,16 @@
       </c>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
-      <c r="U41" s="18" t="s">
-        <v>75</v>
+      <c r="U41" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E42" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="U42" s="18" t="s">
-        <v>108</v>
+      <c r="U42" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9444,135 +9515,114 @@
     <row r="47" spans="1:21" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:21" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-    </row>
-    <row r="49" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20"/>
       <c r="E49" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="T49" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="U49" s="17"/>
+    </row>
+    <row r="50" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="20"/>
+      <c r="E50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="20"/>
+      <c r="E51" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="20"/>
+      <c r="E52" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="T52" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="22"/>
+      <c r="E53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="S49" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
-      <c r="E50" s="25" t="s">
+      <c r="T53" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23"/>
+      <c r="E54" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="T50" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
-      <c r="B51" s="23"/>
-      <c r="E51" s="25" t="s">
+      <c r="T54" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
+      <c r="E55" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="T51" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
-      <c r="T52" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="T53" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="24"/>
-      <c r="D54" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-    </row>
-    <row r="55" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25" t="s">
-        <v>78</v>
-      </c>
       <c r="O55" s="21"/>
-    </row>
-    <row r="56" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P55" s="21"/>
+      <c r="T55" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="B56" s="24"/>
       <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-    </row>
-    <row r="57" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T56" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="31"/>
+      <c r="B57" s="24"/>
       <c r="D57" s="18" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-    </row>
-    <row r="58" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="26"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="21"/>
+      <c r="E58" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="O58" s="21"/>
-      <c r="P58" s="25"/>
+      <c r="P58" s="21"/>
       <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="25"/>
-    </row>
-    <row r="59" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S58" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="26"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="25"/>
+      <c r="E59" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
@@ -9584,48 +9634,43 @@
       <c r="O59" s="21"/>
       <c r="P59" s="25"/>
       <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="25"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-    </row>
-    <row r="60" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T59" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
-      <c r="B60" s="28"/>
-      <c r="D60" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
+      <c r="B60" s="27"/>
+      <c r="E60" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
-      <c r="P60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-    </row>
-    <row r="61" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="T60" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+    </row>
+    <row r="61" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="18"/>
-      <c r="D61" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="21"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -9635,23 +9680,23 @@
       <c r="N61" s="21"/>
       <c r="O61" s="21"/>
       <c r="P61" s="17"/>
+      <c r="Q61" s="18"/>
       <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-    </row>
-    <row r="62" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S61" s="18"/>
+      <c r="T61" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+    </row>
+    <row r="62" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="29"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="G62" s="18"/>
+      <c r="B62" s="28"/>
+      <c r="E62" s="62" t="s">
+        <v>137</v>
+      </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -9662,20 +9707,25 @@
       <c r="O62" s="21"/>
       <c r="P62" s="17"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
     </row>
-    <row r="63" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -9687,133 +9737,199 @@
       <c r="P63" s="17"/>
       <c r="R63" s="17"/>
       <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
-      <c r="D64" s="25" t="s">
-        <v>86</v>
-      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="Q64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="V64" s="18"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
-      <c r="D65" s="25" t="s">
-        <v>87</v>
+      <c r="B65" s="18"/>
+      <c r="E65" s="62" t="s">
+        <v>140</v>
       </c>
       <c r="N65" s="21"/>
       <c r="O65" s="21"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="U65" s="25"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
-      <c r="D66" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
       <c r="N66" s="21"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
-      <c r="D67" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="18"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
-      <c r="D68" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="25"/>
+      <c r="C68" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="25"/>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
-      <c r="D69" s="17" t="s">
-        <v>113</v>
-      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="25"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70" s="32"/>
-      <c r="D70" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="N70" s="21"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="25"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="17" t="s">
-        <v>115</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="25"/>
       <c r="N71" s="21"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
-      <c r="D72" s="17" t="s">
-        <v>116</v>
-      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="18"/>
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="18" t="s">
-        <v>117</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E73" s="18"/>
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="D74" s="18" t="s">
-        <v>118</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E74" s="18"/>
       <c r="N74" s="21"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="32"/>
-      <c r="D75" s="18" t="s">
-        <v>119</v>
+      <c r="C75" s="18"/>
+      <c r="D75" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="N75" s="21"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
-      <c r="D76" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="21"/>
       <c r="N76" s="21"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D77" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D78" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="32"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D79" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
+      <c r="D80" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D81" s="25" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="30"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
+      <c r="D82" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D83" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
